--- a/Student/Modules/09_Security/Demo/DynamicRLS.xlsx
+++ b/Student/Modules/09_Security/Demo/DynamicRLS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\PBI365\Student\Modules\09_Security\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087B982-A8E0-4445-B600-694F1EC59C52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users Table" sheetId="1" r:id="rId1"/>
@@ -26,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>DIONYSUS\TedP</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -112,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,35 +221,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Users" displayName="Users" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Users" displayName="Users" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="User"/>
-    <tableColumn id="2" name="UserName" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UserName" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Regions" displayName="Regions" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Regions" displayName="Regions" ref="A1:A4" totalsRowShown="0">
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Region"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="UserRegion" displayName="UserRegion" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="UserRegion" displayName="UserRegion" ref="A1:B16" totalsRowShown="0">
+  <autoFilter ref="A1:B16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:B16">
     <sortCondition ref="A1:A16"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="User" dataDxfId="0"/>
-    <tableColumn id="2" name="Region"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="User" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,92 +569,92 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="AustinP@cpt0926.onmicrosoft.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="AustinP@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -666,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,22 +678,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -707,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,137 +723,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="AustinP@cpt0926.onmicrosoft.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="AustinP@cpt0926.onmicrosoft.com"/>
-    <hyperlink ref="A15" r:id="rId3" display="Student@cpt0926.onmicrosoft.com"/>
-    <hyperlink ref="A16" r:id="rId4" display="Student@cpt0926.onmicrosoft.com"/>
-    <hyperlink ref="A12" r:id="rId5" display="MaxwellS@cpt0926.onmicrosoft.com"/>
-    <hyperlink ref="A13" r:id="rId6" display="MaxwellS@cpt0926.onmicrosoft.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="AustinP@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="AustinP@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A15" r:id="rId3" display="Student@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A16" r:id="rId4" display="Student@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="MaxwellS@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" display="MaxwellS@cpt0926.onmicrosoft.com" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
